--- a/src/main/resources/data-export/template.xlsx
+++ b/src/main/resources/data-export/template.xlsx
@@ -11,7 +11,7 @@
     <sheet name="设备消耗" sheetId="2" r:id="rId2"/>
     <sheet name="刀片用量" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" refMode="R1C1"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,6 +78,10 @@
   </si>
   <si>
     <t>退旧刀片使用情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀片代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -140,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -163,13 +163,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -185,20 +248,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,14 +604,14 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.375" style="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
     <col min="7" max="10" width="7.125" style="1" customWidth="1"/>
@@ -530,54 +623,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="13" t="s">
         <v>9</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="12"/>
       <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>3</v>
@@ -588,10 +681,10 @@
       <c r="J2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -599,9 +692,9 @@
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:J1"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="K1:K2"/>
@@ -621,14 +714,14 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
     <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
@@ -638,32 +731,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -682,13 +775,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.625" style="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
@@ -698,29 +791,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data-export/template.xlsx
+++ b/src/main/resources/data-export/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="个人消耗" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="19">
   <si>
     <t>月份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,14 @@
   </si>
   <si>
     <t>刀片代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,11 +608,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1:L1048576"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -685,6 +693,38 @@
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
+    </row>
+    <row r="3" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -710,11 +750,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -759,6 +799,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -771,11 +837,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -816,6 +882,29 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/data-export/template.xlsx
+++ b/src/main/resources/data-export/template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="19">
   <si>
     <t>月份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,18 +268,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -300,6 +288,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -612,7 +612,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -631,46 +631,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="13" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="12"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
@@ -689,10 +689,10 @@
       <c r="J2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -716,6 +716,15 @@
       <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
@@ -728,16 +737,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
